--- a/Staff Hrs.xlsx
+++ b/Staff Hrs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thinnadisan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110C2DCC-22DF-6B41-9593-6BEBF240F009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA4458-1FA9-5F41-B62F-2BB91FB5D9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="staff hours 04 nov to 17 nov 20" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="staff hours 18 nov to 01 dec 20" sheetId="3" state="hidden" r:id="rId2"/>
     <sheet name="02 dec to 15 dec 2924" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Copy of 19 May to 1 June(Staff " sheetId="6" r:id="rId4"/>
+    <sheet name="Staff Hours+Perforamce Aanlysis" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="118">
   <si>
     <t>Sylvia Park</t>
   </si>
@@ -268,9 +268,6 @@
     <t>$11.50 (14/12)</t>
   </si>
   <si>
-    <t>Sylvia Park(Original Hours)</t>
-  </si>
-  <si>
     <t>16 June to 29 June</t>
   </si>
   <si>
@@ -328,9 +325,6 @@
     <t>Total Days Worked(1+2)</t>
   </si>
   <si>
-    <t>Sylvia Park(Minus Breaks)</t>
-  </si>
-  <si>
     <t>Total Hours(1st W)</t>
   </si>
   <si>
@@ -338,9 +332,6 @@
   </si>
   <si>
     <t>Total Hours(1+2 W)</t>
-  </si>
-  <si>
-    <t>Sylvia Park(Bonus &amp; Sales Tracking)</t>
   </si>
   <si>
     <t>Total Sales(1st W)</t>
@@ -364,16 +355,7 @@
     <t>TOTAL BONUS</t>
   </si>
   <si>
-    <t>Queensgate(Original Hours)</t>
-  </si>
-  <si>
     <t>Days Worked</t>
-  </si>
-  <si>
-    <t>Queensgate(Minus Breaks)</t>
-  </si>
-  <si>
-    <t>Queensgate(Bonus)</t>
   </si>
   <si>
     <t>Logistics+Office(Original Hours)</t>
@@ -384,6 +366,30 @@
   <si>
     <t>Final Total Hours</t>
   </si>
+  <si>
+    <t>Staff A</t>
+  </si>
+  <si>
+    <t>Staff B</t>
+  </si>
+  <si>
+    <t>Staff C</t>
+  </si>
+  <si>
+    <t>Staff D</t>
+  </si>
+  <si>
+    <t>Store Name(Original Hours)</t>
+  </si>
+  <si>
+    <t>Store Name(Minus Breaks)</t>
+  </si>
+  <si>
+    <t>Store Name(Bonus &amp; Sales Tracking)</t>
+  </si>
+  <si>
+    <t>Store Name(Bonus)</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +399,7 @@
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -405,18 +411,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,11 +433,20 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -557,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -611,16 +629,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2339,17 +2358,17 @@
   <dimension ref="A1:AC999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="7.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" customWidth="1"/>
     <col min="9" max="9" width="1.33203125" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
@@ -2366,31 +2385,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="34"/>
+      <c r="A1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="36"/>
       <c r="X1" s="24"/>
       <c r="Y1" s="24"/>
       <c r="Z1" s="24"/>
@@ -2399,31 +2418,31 @@
       <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="34"/>
+      <c r="A2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="36"/>
       <c r="X2" s="24"/>
       <c r="Y2" s="24"/>
       <c r="Z2" s="24"/>
@@ -2433,61 +2452,61 @@
     </row>
     <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="M3" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="N3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="O3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="P3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="R3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="S3" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="33"/>
+      <c r="T3" s="35"/>
       <c r="U3" s="24"/>
       <c r="V3" s="24"/>
       <c r="W3" s="24"/>
@@ -2499,33 +2518,43 @@
       <c r="AC3" s="24"/>
     </row>
     <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="27">
+        <v>8</v>
+      </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="G4" s="27">
+        <v>6</v>
+      </c>
       <c r="H4" s="27"/>
       <c r="I4" s="26"/>
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
+      <c r="M4" s="27">
+        <v>6</v>
+      </c>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="P4" s="27">
+        <v>7</v>
+      </c>
       <c r="Q4" s="28">
         <f t="shared" ref="Q4:Q7" si="0">COUNT(B4:H4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R4" s="28">
         <f t="shared" ref="R4:R7" si="1">COUNT(J4:P4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="28">
         <f t="shared" ref="S4:S7" si="2">SUM(Q4:R4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T4" s="24"/>
       <c r="U4" s="24"/>
@@ -2539,33 +2568,47 @@
       <c r="AC4" s="24"/>
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="31" t="s">
+        <v>111</v>
+      </c>
       <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="C5" s="27">
+        <v>7</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="F5" s="27">
+        <v>6</v>
+      </c>
+      <c r="G5" s="27">
+        <v>5</v>
+      </c>
       <c r="H5" s="27"/>
       <c r="I5" s="26"/>
       <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="K5" s="27">
+        <v>6</v>
+      </c>
       <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
+      <c r="M5" s="27">
+        <v>6</v>
+      </c>
       <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
+      <c r="O5" s="27">
+        <v>6</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T5" s="24"/>
       <c r="U5" s="24"/>
@@ -2579,33 +2622,45 @@
       <c r="AC5" s="24"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27"/>
+      <c r="A6" s="31" t="s">
+        <v>112</v>
+      </c>
       <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="C6" s="27">
+        <v>8</v>
+      </c>
       <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="E6" s="27">
+        <v>9</v>
+      </c>
       <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="27">
+        <v>3</v>
+      </c>
       <c r="H6" s="27"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>8</v>
+      </c>
       <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
+      <c r="N6" s="27">
+        <v>10</v>
+      </c>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
       <c r="Q6" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R6" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S6" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="24"/>
       <c r="U6" s="24"/>
@@ -2619,13 +2674,17 @@
       <c r="AC6" s="24"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27"/>
+      <c r="A7" s="31" t="s">
+        <v>113</v>
+      </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27">
+        <v>3</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="26"/>
       <c r="J7" s="27"/>
@@ -2634,18 +2693,20 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="P7" s="27">
+        <v>11</v>
+      </c>
       <c r="Q7" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
@@ -2659,31 +2720,31 @@
       <c r="AC7" s="24"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="A8" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="36"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
       <c r="Z8" s="24"/>
@@ -2693,61 +2754,61 @@
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="F9" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="G9" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="L9" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="M9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="N9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="O9" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="P9" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="R9" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="T9" s="34"/>
+      <c r="T9" s="36"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
@@ -2759,13 +2820,16 @@
       <c r="AC9" s="24"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
+      <c r="A10" s="27" t="str">
+        <f>A4</f>
+        <v>Staff A</v>
+      </c>
       <c r="B10" s="27">
         <f t="shared" ref="B10:G10" si="3">IF(B4&gt; 4.5, (B4 * 60 - 30) / 60, B4)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="C10" s="27">
-        <f t="shared" si="3"/>
+        <f>IF(C4&gt; 4.5, (C4 * 60 - 30) / 60, C4)</f>
         <v>0</v>
       </c>
       <c r="D10" s="27">
@@ -2782,49 +2846,52 @@
       </c>
       <c r="G10" s="27">
         <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" ref="B10:H11" si="4">IF(H4&gt; 4.5, (H4 * 60 - 30) / 60, H4)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="27"/>
       <c r="I10" s="26"/>
       <c r="J10" s="27">
-        <f t="shared" ref="J10:P10" si="4">IF(J4&gt; 4.5, (J4 * 60 - 30) / 60, J4)</f>
+        <f t="shared" ref="J10:P10" si="5">IF(J4&gt; 4.5, (J4 * 60 - 30) / 60, J4)</f>
         <v>0</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="27">
-        <f t="shared" si="4"/>
+      <c r="O10" s="27">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O10" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="P10" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="Q10" s="27">
-        <f t="shared" ref="Q10:Q13" si="5">SUM(B10:H10)</f>
-        <v>0</v>
+        <f t="shared" ref="Q10:Q13" si="6">SUM(B10:H10)</f>
+        <v>13</v>
       </c>
       <c r="R10" s="27">
-        <f t="shared" ref="R10:R13" si="6">SUM(J10:P10)</f>
-        <v>0</v>
+        <f t="shared" ref="R10:R13" si="7">SUM(J10:P10)</f>
+        <v>12</v>
       </c>
       <c r="S10" s="27">
         <f>Q10+R10</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
@@ -2838,75 +2905,78 @@
       <c r="AC10" s="24"/>
     </row>
     <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="27" t="str">
+        <f t="shared" ref="A11:A13" si="8">A5</f>
+        <v>Staff B</v>
+      </c>
       <c r="B11" s="27">
-        <f t="shared" ref="B11:H11" si="7">IF(B5&gt; 4.5, (B5 * 60 - 30) / 60, B5)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C11" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="D11" s="27">
-        <f t="shared" si="7"/>
+      <c r="E11" s="27">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E11" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="F11" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5.5</v>
       </c>
       <c r="G11" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.5</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11" s="26"/>
       <c r="J11" s="27">
-        <f t="shared" ref="J11:P11" si="8">IF(J5&gt; 4.5, (J5 * 60 - 30) / 60, J5)</f>
+        <f t="shared" ref="J11:P12" si="9">IF(J5&gt; 4.5, (J5 * 60 - 30) / 60, J5)</f>
         <v>0</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L11" s="27">
-        <f t="shared" si="8"/>
+      <c r="M11" s="27">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M11" s="27">
-        <f t="shared" si="8"/>
+      <c r="O11" s="27">
+        <f t="shared" si="9"/>
+        <v>5.5</v>
+      </c>
+      <c r="P11" s="27">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="N11" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="27">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="Q11" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>16.5</v>
       </c>
       <c r="R11" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>16.5</v>
       </c>
       <c r="S11" s="27">
         <f>SUM(Q11:R11)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
@@ -2920,72 +2990,78 @@
       <c r="AC11" s="24"/>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
+      <c r="A12" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>Staff C</v>
+      </c>
       <c r="B12" s="27">
-        <f t="shared" ref="B12:H12" si="9">IF(B6&gt; 4.5, (B6 * 60 - 30) / 60, B6)</f>
+        <f t="shared" ref="B12:H13" si="10">IF(B6&gt; 4.5, (B6 * 60 - 30) / 60, B6)</f>
         <v>0</v>
       </c>
       <c r="C12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
+        <v>7.5</v>
+      </c>
+      <c r="D12" s="27">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D12" s="27">
-        <f t="shared" si="9"/>
+      <c r="E12" s="27">
+        <f t="shared" si="10"/>
+        <v>8.5</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E12" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="G12" s="27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="27">
-        <f t="shared" ref="J12:K12" si="10">IF(J6&gt; 4.5, (J6 * 60 - 30) / 60, J6)</f>
+        <f t="shared" ref="J12:K12" si="11">IF(J6&gt; 4.5, (J6 * 60 - 30) / 60, J6)</f>
         <v>0</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27">
-        <f t="shared" ref="M12:P12" si="11">IF(M6&gt; 4.5, (M6 * 60 - 30) / 60, M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="L12" s="27">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" ref="M12:P12" si="12">IF(M6&gt; 4.5, (M6 * 60 - 30) / 60, M6)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="27">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
       <c r="O12" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P12" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q12" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="R12" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>17</v>
       </c>
       <c r="S12" s="27">
-        <f t="shared" ref="S12:S13" si="12">Q12+R12</f>
-        <v>0</v>
+        <f t="shared" ref="S12:S13" si="13">Q12+R12</f>
+        <v>36</v>
       </c>
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
@@ -2999,72 +3075,78 @@
       <c r="AC12" s="24"/>
     </row>
     <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
+      <c r="A13" s="27" t="str">
+        <f t="shared" si="8"/>
+        <v>Staff D</v>
+      </c>
       <c r="B13" s="27">
-        <f t="shared" ref="B13:E13" si="13">IF(B7&gt; 4.5, (B7 * 60 - 30) / 60, B7)</f>
+        <f t="shared" ref="B13:E13" si="14">IF(B7&gt; 4.5, (B7 * 60 - 30) / 60, B7)</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="27">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="27">
-        <f t="shared" ref="F13:G13" si="14">IF(F7 &gt; 4.5,F7  - 0.5, F7)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="27">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="H13" s="27"/>
+      <c r="D13" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" ref="F13:G13" si="15">IF(F7 &gt; 4.5,F7  - 0.5, F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="27">
-        <f t="shared" ref="J13:P13" si="15">IF(J7&gt; 4.5, (J7 * 60 - 30) / 60, J7)</f>
+        <f t="shared" ref="J13:P13" si="16">IF(J7&gt; 4.5, (J7 * 60 - 30) / 60, J7)</f>
         <v>0</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O13" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P13" s="27">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>10.5</v>
       </c>
       <c r="Q13" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="R13" s="27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>10.5</v>
       </c>
       <c r="S13" s="27">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>13.5</v>
       </c>
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
@@ -3078,31 +3160,31 @@
       <c r="AC13" s="24"/>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="34"/>
+      <c r="A14" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="36"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
       <c r="Z14" s="24"/>
@@ -3112,71 +3194,71 @@
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="E15" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="F15" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="G15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="H15" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="L15" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="M15" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="N15" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N15" s="25" t="s">
+      <c r="O15" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="P15" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="U15" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="V15" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="W15" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="U15" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="V15" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="W15" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="X15" s="24"/>
       <c r="Y15" s="24"/>
@@ -3186,49 +3268,60 @@
       <c r="AC15" s="24"/>
     </row>
     <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="27" t="str">
+        <f>A4</f>
+        <v>Staff A</v>
+      </c>
+      <c r="B16" s="27">
+        <v>100</v>
+      </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="27">
+        <v>100</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="26"/>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="27">
+        <v>30</v>
+      </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
+      <c r="P16" s="27">
+        <v>123</v>
+      </c>
       <c r="Q16" s="27">
-        <f t="shared" ref="Q16:Q19" si="16">SUM(B16:H16)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="27" t="e">
-        <f t="shared" ref="R16:R19" si="17">Q16/Q10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="27" t="e">
-        <f t="shared" ref="S16:S19" si="18">IF(R16&gt;90,R16*0.03,"")</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="Q16:Q19" si="17">SUM(B16:H16)</f>
+        <v>200</v>
+      </c>
+      <c r="R16" s="27">
+        <f t="shared" ref="R16:R19" si="18">Q16/Q10</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="S16" s="27" t="str">
+        <f t="shared" ref="S16:S19" si="19">IF(R16&gt;90,R16*0.03,"")</f>
+        <v/>
       </c>
       <c r="T16" s="27">
-        <f t="shared" ref="T16:T19" si="19">SUM(J16:P16)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="27" t="e">
-        <f t="shared" ref="U16:U19" si="20">T16/R10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V16" s="27" t="e">
-        <f t="shared" ref="V16:V19" si="21">IF(U16&gt;90,U16*0.03,"")</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="T16:T19" si="20">SUM(J16:P16)</f>
+        <v>153</v>
+      </c>
+      <c r="U16" s="27">
+        <f t="shared" ref="U16:U19" si="21">T16/R10</f>
+        <v>12.75</v>
+      </c>
+      <c r="V16" s="27" t="str">
+        <f t="shared" ref="V16:V19" si="22">IF(U16&gt;90,U16*0.03,"")</f>
+        <v/>
       </c>
       <c r="W16" s="27" t="e">
-        <f t="shared" ref="W16:W19" si="22">S16+V16</f>
-        <v>#DIV/0!</v>
+        <f>S16+V16, Null</f>
+        <v>#VALUE!</v>
       </c>
       <c r="X16" s="24"/>
       <c r="Y16" s="24"/>
@@ -3238,49 +3331,64 @@
       <c r="AC16" s="24"/>
     </row>
     <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="27" t="str">
+        <f t="shared" ref="A17:A19" si="23">A5</f>
+        <v>Staff B</v>
+      </c>
       <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="C17" s="27">
+        <v>200</v>
+      </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
+      <c r="F17" s="27">
+        <v>280</v>
+      </c>
+      <c r="G17" s="27">
+        <v>150</v>
+      </c>
       <c r="H17" s="27"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
+      <c r="K17" s="27">
+        <v>12</v>
+      </c>
       <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="M17" s="27">
+        <v>380</v>
+      </c>
       <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
+      <c r="O17" s="27">
+        <v>122</v>
+      </c>
       <c r="P17" s="27"/>
       <c r="Q17" s="27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="27" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="27" t="e">
+        <v>630</v>
+      </c>
+      <c r="R17" s="27">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>38.18181818181818</v>
+      </c>
+      <c r="S17" s="27" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="T17" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="27" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="27" t="e">
+        <v>514</v>
+      </c>
+      <c r="U17" s="27">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>31.151515151515152</v>
+      </c>
+      <c r="V17" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="W17" s="27" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="W17:W18" si="24">S17+V17</f>
+        <v>#VALUE!</v>
       </c>
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
@@ -3290,49 +3398,62 @@
       <c r="AC17" s="24"/>
     </row>
     <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
+      <c r="A18" s="27" t="str">
+        <f t="shared" si="23"/>
+        <v>Staff C</v>
+      </c>
       <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="C18" s="27">
+        <v>300</v>
+      </c>
       <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="E18" s="27">
+        <v>150</v>
+      </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="27">
+        <v>200</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="26"/>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>14</v>
+      </c>
       <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="N18" s="27">
+        <v>212</v>
+      </c>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
       <c r="Q18" s="27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="27" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="27" t="e">
+        <v>650</v>
+      </c>
+      <c r="R18" s="27">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>34.210526315789473</v>
+      </c>
+      <c r="S18" s="27" t="str">
+        <f t="shared" si="19"/>
+        <v/>
       </c>
       <c r="T18" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="27" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="27" t="e">
+        <v>226</v>
+      </c>
+      <c r="U18" s="27">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>13.294117647058824</v>
+      </c>
+      <c r="V18" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="W18" s="27" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
       </c>
       <c r="X18" s="24"/>
       <c r="Y18" s="24"/>
@@ -3342,13 +3463,18 @@
       <c r="AC18" s="24"/>
     </row>
     <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
+      <c r="A19" s="27" t="str">
+        <f t="shared" si="23"/>
+        <v>Staff D</v>
+      </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="27">
+        <v>1000</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="26"/>
       <c r="J19" s="27"/>
@@ -3357,34 +3483,36 @@
       <c r="M19" s="27"/>
       <c r="N19" s="27"/>
       <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="P19" s="27">
+        <v>121</v>
+      </c>
       <c r="Q19" s="27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="27" t="e">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="27" t="e">
+        <v>1000</v>
+      </c>
+      <c r="R19" s="27">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="S19" s="27">
+        <f t="shared" si="19"/>
+        <v>9.9999999999999982</v>
       </c>
       <c r="T19" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="27" t="e">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="27" t="e">
+        <v>121</v>
+      </c>
+      <c r="U19" s="27">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>11.523809523809524</v>
+      </c>
+      <c r="V19" s="27" t="str">
+        <f t="shared" si="22"/>
+        <v/>
       </c>
       <c r="W19" s="27" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <f>S19+V19</f>
+        <v>#VALUE!</v>
       </c>
       <c r="X19" s="24"/>
       <c r="Y19" s="24"/>
@@ -3457,30 +3585,30 @@
     </row>
     <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34"/>
+        <v>114</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="36"/>
       <c r="X22" s="24"/>
       <c r="Y22" s="24"/>
       <c r="Z22" s="24"/>
@@ -3489,31 +3617,31 @@
       <c r="AC22" s="24"/>
     </row>
     <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="A23" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="36"/>
       <c r="X23" s="24"/>
       <c r="Y23" s="24"/>
       <c r="Z23" s="24"/>
@@ -3523,61 +3651,61 @@
     </row>
     <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="C24" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="E24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="F24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="G24" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="H24" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="L24" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="M24" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="N24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N24" s="25" t="s">
+      <c r="O24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="P24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q24" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="S24" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="34"/>
+      <c r="T24" s="36"/>
       <c r="U24" s="24"/>
       <c r="V24" s="24"/>
       <c r="W24" s="24"/>
@@ -3606,15 +3734,15 @@
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
       <c r="Q25" s="28">
-        <f t="shared" ref="Q25:Q28" si="23">COUNT(B25:H25)</f>
+        <f t="shared" ref="Q25:Q28" si="25">COUNT(B25:H25)</f>
         <v>0</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" ref="R25:R28" si="24">COUNT(J25:P25)</f>
+        <f t="shared" ref="R25:R28" si="26">COUNT(J25:P25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="28">
-        <f t="shared" ref="S25:S27" si="25">SUM(Q25:R25)</f>
+        <f t="shared" ref="S25:S27" si="27">SUM(Q25:R25)</f>
         <v>0</v>
       </c>
       <c r="T25" s="24"/>
@@ -3646,15 +3774,15 @@
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
       <c r="Q26" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S26" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T26" s="24"/>
@@ -3686,15 +3814,15 @@
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
       <c r="Q27" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R27" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S27" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="T27" s="24"/>
@@ -3726,11 +3854,11 @@
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R28" s="28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="S28" s="28">
@@ -3750,30 +3878,30 @@
     </row>
     <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+        <v>115</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="36"/>
       <c r="X29" s="24"/>
       <c r="Y29" s="24"/>
       <c r="Z29" s="24"/>
@@ -3783,61 +3911,61 @@
     </row>
     <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="C30" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="E30" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="F30" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="G30" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="H30" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="L30" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="M30" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="N30" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="O30" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="P30" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P30" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q30" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="R30" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S30" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="T30" s="34"/>
+      <c r="T30" s="36"/>
       <c r="U30" s="24"/>
       <c r="V30" s="24"/>
       <c r="W30" s="24"/>
@@ -3866,27 +3994,27 @@
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
       <c r="N31" s="27">
-        <f t="shared" ref="N31:P31" si="26">IF(N25&gt; 4.5, (N25 * 60 - 30) / 60, N25)</f>
+        <f t="shared" ref="N31:P31" si="28">IF(N25&gt; 4.5, (N25 * 60 - 30) / 60, N25)</f>
         <v>0</v>
       </c>
       <c r="O31" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="P31" s="27">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Q31" s="27">
-        <f t="shared" ref="Q31:Q34" si="27">SUM(B31:H31)</f>
+        <f t="shared" ref="Q31:Q34" si="29">SUM(B31:H31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="27">
-        <f t="shared" ref="R31:R34" si="28">SUM(J31:P31)</f>
+        <f t="shared" ref="R31:R34" si="30">SUM(J31:P31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="27">
-        <f t="shared" ref="S31:S34" si="29">Q31+R31</f>
+        <f t="shared" ref="S31:S34" si="31">Q31+R31</f>
         <v>0</v>
       </c>
       <c r="T31" s="24"/>
@@ -3903,7 +4031,7 @@
     <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="27">
-        <f t="shared" ref="B32:B34" si="30">IF(B26&gt; 4.5, (B26 * 60 - 30) / 60, B26)</f>
+        <f t="shared" ref="B32:B34" si="32">IF(B26&gt; 4.5, (B26 * 60 - 30) / 60, B26)</f>
         <v>0</v>
       </c>
       <c r="C32" s="27"/>
@@ -3917,43 +4045,43 @@
       <c r="H32" s="27"/>
       <c r="I32" s="26"/>
       <c r="J32" s="27">
-        <f t="shared" ref="J32:P32" si="31">IF(J26&gt; 4.5, (J26 * 60 - 30) / 60, J26)</f>
+        <f t="shared" ref="J32:P32" si="33">IF(J26&gt; 4.5, (J26 * 60 - 30) / 60, J26)</f>
         <v>0</v>
       </c>
       <c r="K32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="27">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="27">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="27">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="27">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="27">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="27">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="27">
-        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="T32" s="24"/>
@@ -3970,72 +4098,72 @@
     <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
       <c r="B33" s="27">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="C33" s="27">
+        <f t="shared" ref="C33:H33" si="34">IF(C27&gt; 4.5, (C27 * 60 - 30) / 60, C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27">
+        <f t="shared" ref="J33:P33" si="35">IF(J27&gt; 4.5, (J27 * 60 - 30) / 60, J27)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="27">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="27">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="C33" s="27">
-        <f t="shared" ref="C33:H33" si="32">IF(C27&gt; 4.5, (C27 * 60 - 30) / 60, C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="27">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27">
-        <f t="shared" ref="J33:P33" si="33">IF(J27&gt; 4.5, (J27 * 60 - 30) / 60, J27)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="27">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="27">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="27">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
       <c r="S33" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T33" s="24"/>
@@ -4052,72 +4180,72 @@
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
       <c r="B34" s="27">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="C34" s="27">
+        <f t="shared" ref="C34:H34" si="36">IF(C28&gt; 4.5, (C28 * 60 - 30) / 60, C28)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27">
+        <f t="shared" ref="J34:P34" si="37">IF(J28&gt; 4.5, (J28 * 60 - 30) / 60, J28)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="27">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="27">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="27">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="C34" s="27">
-        <f t="shared" ref="C34:H34" si="34">IF(C28&gt; 4.5, (C28 * 60 - 30) / 60, C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="27">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27">
-        <f t="shared" ref="J34:P34" si="35">IF(J28&gt; 4.5, (J28 * 60 - 30) / 60, J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="27">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="27">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="27">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
       <c r="S34" s="27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="T34" s="24"/>
@@ -4133,30 +4261,30 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="24"/>
       <c r="Y35" s="24"/>
       <c r="Z35" s="24"/>
@@ -4166,71 +4294,71 @@
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="C36" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="D36" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="F36" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="G36" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="H36" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K36" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="L36" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="M36" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M36" s="25" t="s">
+      <c r="N36" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="O36" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="R36" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="U36" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="V36" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="T36" s="25" t="s">
+      <c r="W36" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="U36" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="V36" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="W36" s="29" t="s">
-        <v>108</v>
       </c>
       <c r="X36" s="24"/>
       <c r="Y36" s="24"/>
@@ -4257,31 +4385,31 @@
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27">
-        <f t="shared" ref="Q37:Q40" si="36">SUM(B37:H37)</f>
+        <f t="shared" ref="Q37:Q40" si="38">SUM(B37:H37)</f>
         <v>0</v>
       </c>
       <c r="R37" s="27" t="e">
-        <f t="shared" ref="R37:R40" si="37">Q37/Q31</f>
+        <f t="shared" ref="R37:R40" si="39">Q37/Q31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S37" s="27" t="e">
-        <f t="shared" ref="S37:S40" si="38">IF(R37&gt;90,R37*0.03,"")</f>
+        <f t="shared" ref="S37:S40" si="40">IF(R37&gt;90,R37*0.03,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T37" s="27">
-        <f t="shared" ref="T37:T40" si="39">SUM(J37:P37)</f>
+        <f t="shared" ref="T37:T40" si="41">SUM(J37:P37)</f>
         <v>0</v>
       </c>
       <c r="U37" s="27" t="e">
-        <f t="shared" ref="U37:U40" si="40">T37/R31</f>
+        <f t="shared" ref="U37:U40" si="42">T37/R31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V37" s="27" t="e">
-        <f t="shared" ref="V37:V40" si="41">IF(U37&gt;90,U37*0.03,"")</f>
+        <f t="shared" ref="V37:V40" si="43">IF(U37&gt;90,U37*0.03,"")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W37" s="27" t="e">
-        <f t="shared" ref="W37:W40" si="42">S37+V37</f>
+        <f t="shared" ref="W37:W40" si="44">S37+V37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X37" s="24"/>
@@ -4309,31 +4437,31 @@
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R38" s="27" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="27" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="27">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="27" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="T38" s="27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="27" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V38" s="27" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W38" s="27" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X38" s="24"/>
@@ -4361,31 +4489,31 @@
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R39" s="27" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="27" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="27">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="27" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="T39" s="27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="27" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V39" s="27" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W39" s="27" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X39" s="24"/>
@@ -4413,31 +4541,31 @@
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
       <c r="Q40" s="27">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R40" s="27" t="e">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="27" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T40" s="27">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U40" s="27" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="T40" s="27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="27" t="e">
+        <f t="shared" si="42"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="V40" s="27" t="e">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W40" s="27" t="e">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X40" s="24"/>
@@ -4449,20 +4577,20 @@
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="40"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
       <c r="P41" s="24"/>
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
@@ -4480,20 +4608,20 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="40"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
       <c r="P42" s="24"/>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -4520,11 +4648,11 @@
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
       <c r="P43" s="24"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
@@ -4541,26 +4669,26 @@
       <c r="AC43" s="24"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="34"/>
+      <c r="A44" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="36"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
       <c r="U44" s="24"/>
@@ -4574,26 +4702,26 @@
       <c r="AC44" s="24"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="A45" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36"/>
       <c r="S45" s="24"/>
       <c r="T45" s="24"/>
       <c r="U45" s="24"/>
@@ -4608,53 +4736,53 @@
     </row>
     <row r="46" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="C46" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="D46" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="E46" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="F46" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="G46" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="H46" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K46" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K46" s="25" t="s">
+      <c r="L46" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L46" s="25" t="s">
+      <c r="M46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M46" s="25" t="s">
+      <c r="N46" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N46" s="25" t="s">
+      <c r="O46" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O46" s="25" t="s">
+      <c r="P46" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P46" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q46" s="25" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
@@ -4687,7 +4815,7 @@
       <c r="O47" s="27"/>
       <c r="P47" s="27"/>
       <c r="Q47" s="28">
-        <f t="shared" ref="Q47:Q48" si="43">COUNT(B47:P47)</f>
+        <f t="shared" ref="Q47:Q48" si="45">COUNT(B47:P47)</f>
         <v>0</v>
       </c>
       <c r="R47" s="24"/>
@@ -4721,7 +4849,7 @@
       <c r="O48" s="27"/>
       <c r="P48" s="27"/>
       <c r="Q48" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="R48" s="24"/>
@@ -4738,26 +4866,26 @@
       <c r="AC48" s="24"/>
     </row>
     <row r="49" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="34"/>
+      <c r="A49" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="36"/>
       <c r="S49" s="24"/>
       <c r="T49" s="24"/>
       <c r="U49" s="24"/>
@@ -4772,53 +4900,53 @@
     </row>
     <row r="50" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="C50" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="D50" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="E50" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="F50" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="25" t="s">
+      <c r="G50" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="H50" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K50" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="L50" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L50" s="25" t="s">
+      <c r="M50" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="M50" s="25" t="s">
+      <c r="N50" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="N50" s="25" t="s">
+      <c r="O50" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="O50" s="25" t="s">
+      <c r="P50" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="P50" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="Q50" s="25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
@@ -4836,64 +4964,64 @@
     <row r="51" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="27"/>
       <c r="B51" s="27">
-        <f t="shared" ref="B51:H51" si="44">IF(B47&gt; 4.5, (B47 * 60 - 30) / 60, B47)</f>
+        <f t="shared" ref="B51:H51" si="46">IF(B47&gt; 4.5, (B47 * 60 - 30) / 60, B47)</f>
         <v>0</v>
       </c>
       <c r="C51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="D51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="E51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="F51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="H51" s="27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="27">
-        <f t="shared" ref="J51:P51" si="45">IF(J47&gt; 4.5, (J47 * 60 - 30) / 60, J47)</f>
+        <f t="shared" ref="J51:P51" si="47">IF(J47&gt; 4.5, (J47 * 60 - 30) / 60, J47)</f>
         <v>0</v>
       </c>
       <c r="K51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="L51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="O51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="P51" s="27">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Q51" s="27">
-        <f t="shared" ref="Q51:Q52" si="46">SUM(B51:P51)</f>
+        <f t="shared" ref="Q51:Q52" si="48">SUM(B51:P51)</f>
         <v>0</v>
       </c>
       <c r="R51" s="24"/>
@@ -4912,61 +5040,61 @@
     <row r="52" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="27"/>
       <c r="B52" s="27">
-        <f t="shared" ref="B52:H52" si="47">IF(B48&gt; 4.5, (B48 * 60 - 30) / 60, B48)</f>
+        <f t="shared" ref="B52:H52" si="49">IF(B48&gt; 4.5, (B48 * 60 - 30) / 60, B48)</f>
         <v>0</v>
       </c>
       <c r="C52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="D52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="E52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="H52" s="27">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="27">
-        <f t="shared" ref="J52:O52" si="48">IF(J48&gt; 4.5, (J48 * 60 - 30) / 60, J48)</f>
+        <f t="shared" ref="J52:O52" si="50">IF(J48&gt; 4.5, (J48 * 60 - 30) / 60, J48)</f>
         <v>0</v>
       </c>
       <c r="K52" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="L52" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="M52" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="N52" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="O52" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R52" s="24"/>
@@ -5218,9 +5346,9 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
       <c r="V60" s="24"/>
       <c r="W60" s="24"/>
       <c r="X60" s="24"/>
@@ -34341,6 +34469,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:W2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="A8:W8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="A14:W14"/>
+    <mergeCell ref="A22:W22"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="J43:O43"/>
     <mergeCell ref="S60:U60"/>
     <mergeCell ref="A44:R44"/>
     <mergeCell ref="A45:R45"/>
@@ -34352,16 +34490,6 @@
     <mergeCell ref="A35:W35"/>
     <mergeCell ref="A41:E41"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A14:W14"/>
-    <mergeCell ref="A22:W22"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="J43:O43"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="A8:W8"/>
-    <mergeCell ref="S9:T9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
